--- a/trunk/doc/ontoDog_input/ontoDog_input.xlsx
+++ b/trunk/doc/ontoDog_input/ontoDog_input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t>solid support function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/GO_0008150 </t>
+  </si>
+  <si>
+    <t>biological_process</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000416</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001619</t>
+  </si>
+  <si>
+    <t>specimen collection time measurement datum</t>
+  </si>
+  <si>
+    <t>time measurement datum</t>
   </si>
 </sst>
 </file>
@@ -632,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,6 +1166,39 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>85</v>
       </c>
     </row>

--- a/trunk/doc/ontoDog_input/ontoDog_input.xlsx
+++ b/trunk/doc/ontoDog_input/ontoDog_input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="21915" windowHeight="12015"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Homo sapiens</t>
   </si>
@@ -319,16 +319,48 @@
   </si>
   <si>
     <t>time measurement datum</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000102</t>
+  </si>
+  <si>
+    <t>data about an ontology part</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000093</t>
+  </si>
+  <si>
+    <t>patient role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/OBI_0000679 </t>
+  </si>
+  <si>
+    <t>average value</t>
+  </si>
+  <si>
+    <t>has obsolescence reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/IAO_0000231 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,17 +383,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,6 +482,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -474,6 +517,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,14 +693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
     <col min="2" max="2" width="49.140625" customWidth="1"/>
@@ -665,7 +709,7 @@
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -682,553 +726,603 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E45">
-    <sortCondition ref="A2:A45"/>
+  <sortState ref="A2:E50">
+    <sortCondition ref="B2:B50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
